--- a/teaching/traditional_assets/database/data/thailand/thailand_reinsurance.xlsx
+++ b/teaching/traditional_assets/database/data/thailand/thailand_reinsurance.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.01455</v>
+        <v>-0.03335</v>
       </c>
       <c r="E2">
-        <v>-0.101</v>
+        <v>-0.3295</v>
       </c>
       <c r="G2">
-        <v>-0.04990842490842492</v>
+        <v>0.06637085474077534</v>
       </c>
       <c r="H2">
-        <v>-0.04990842490842492</v>
+        <v>0.06637085474077534</v>
       </c>
       <c r="I2">
-        <v>-0.01055530478301439</v>
+        <v>0.04742816282245576</v>
       </c>
       <c r="J2">
-        <v>-0.009704745216615605</v>
+        <v>0.04016876792942909</v>
       </c>
       <c r="K2">
-        <v>-7.65</v>
+        <v>8.43</v>
       </c>
       <c r="L2">
-        <v>-0.03502747252747253</v>
+        <v>0.03937412424100887</v>
       </c>
       <c r="M2">
-        <v>5.49</v>
+        <v>2.47</v>
       </c>
       <c r="N2">
-        <v>0.03347560975609756</v>
+        <v>0.01016879374228078</v>
       </c>
       <c r="O2">
-        <v>-0.7176470588235294</v>
+        <v>0.2930011862396205</v>
       </c>
       <c r="P2">
-        <v>5.49</v>
+        <v>2.47</v>
       </c>
       <c r="Q2">
-        <v>0.03347560975609756</v>
+        <v>0.01016879374228078</v>
       </c>
       <c r="R2">
-        <v>-0.7176470588235294</v>
+        <v>0.2930011862396205</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>8.039999999999999</v>
+        <v>11.78</v>
       </c>
       <c r="V2">
-        <v>0.04902439024390243</v>
+        <v>0.04849732400164677</v>
       </c>
       <c r="W2">
-        <v>0.01564255543373873</v>
+        <v>0.0521881526323692</v>
       </c>
       <c r="X2">
-        <v>0.0816069842162446</v>
+        <v>0.08787038733482352</v>
       </c>
       <c r="Y2">
-        <v>-0.06596442878250586</v>
+        <v>-0.03568223470245432</v>
       </c>
       <c r="Z2">
-        <v>1.347837040543459</v>
+        <v>1.329110707861179</v>
       </c>
       <c r="AA2">
-        <v>0.03554838900943468</v>
+        <v>0.05488373020113378</v>
       </c>
       <c r="AB2">
-        <v>0.08152956462516557</v>
+        <v>0.08776888700327277</v>
       </c>
       <c r="AC2">
-        <v>-0.04598117561573089</v>
+        <v>-0.03288515680213899</v>
       </c>
       <c r="AD2">
-        <v>0.092</v>
+        <v>0.255</v>
       </c>
       <c r="AE2">
-        <v>0.1963928230517102</v>
+        <v>0.1331516985611</v>
       </c>
       <c r="AF2">
-        <v>0.2883928230517102</v>
+        <v>0.3881516985611</v>
       </c>
       <c r="AG2">
-        <v>-7.751607176948289</v>
+        <v>-11.3918483014389</v>
       </c>
       <c r="AH2">
-        <v>0.001755405954712371</v>
+        <v>0.001595440204757804</v>
       </c>
       <c r="AI2">
-        <v>0.001703559341798183</v>
+        <v>0.00252393760035502</v>
       </c>
       <c r="AJ2">
-        <v>-0.04961079622576876</v>
+        <v>-0.0492071152478114</v>
       </c>
       <c r="AK2">
-        <v>-0.0480724616303905</v>
+        <v>-0.08021967869577117</v>
       </c>
       <c r="AL2">
-        <v>0.007</v>
+        <v>0.015</v>
       </c>
       <c r="AM2">
-        <v>0.007</v>
+        <v>0.015</v>
       </c>
       <c r="AN2">
-        <v>-0.06686046511627905</v>
+        <v>0.02303314967030982</v>
       </c>
       <c r="AO2">
-        <v>-335.7142857142857</v>
+        <v>674.6666666666667</v>
       </c>
       <c r="AP2">
-        <v>5.63343544836358</v>
+        <v>-1.028980968425517</v>
       </c>
       <c r="AQ2">
-        <v>-335.7142857142857</v>
+        <v>674.6666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -725,46 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.08169999999999999</v>
+        <v>0.0413</v>
       </c>
       <c r="E3">
-        <v>-0.101</v>
+        <v>-0.261</v>
       </c>
       <c r="G3">
-        <v>0.1243589743589743</v>
+        <v>0.1077235772357724</v>
       </c>
       <c r="H3">
-        <v>0.1243589743589743</v>
+        <v>0.1077235772357724</v>
       </c>
       <c r="I3">
-        <v>0.09714702377268626</v>
+        <v>0.04352973951119445</v>
       </c>
       <c r="J3">
-        <v>0.08149056815806575</v>
+        <v>0.03833073300531198</v>
       </c>
       <c r="K3">
-        <v>6.35</v>
+        <v>2.81</v>
       </c>
       <c r="L3">
-        <v>0.08141025641025641</v>
+        <v>0.03807588075880759</v>
       </c>
       <c r="M3">
-        <v>5.49</v>
+        <v>2.47</v>
       </c>
       <c r="N3">
-        <v>0.07572413793103448</v>
+        <v>0.03908227848101266</v>
       </c>
       <c r="O3">
-        <v>0.8645669291338584</v>
+        <v>0.8790035587188613</v>
       </c>
       <c r="P3">
-        <v>5.49</v>
+        <v>2.47</v>
       </c>
       <c r="Q3">
-        <v>0.07572413793103448</v>
+        <v>0.03908227848101266</v>
       </c>
       <c r="R3">
-        <v>0.8645669291338584</v>
+        <v>0.8790035587188613</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,67 +773,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1.98</v>
+        <v>1.18</v>
       </c>
       <c r="V3">
-        <v>0.02731034482758621</v>
+        <v>0.01867088607594937</v>
       </c>
       <c r="W3">
-        <v>0.1395604395604396</v>
+        <v>0.05758196721311476</v>
       </c>
       <c r="X3">
-        <v>0.0815824372678758</v>
+        <v>0.08788685516694154</v>
       </c>
       <c r="Y3">
-        <v>0.05797800229256377</v>
+        <v>-0.03030488795382678</v>
       </c>
       <c r="Z3">
-        <v>1.878718565330206</v>
+        <v>1.573811566699595</v>
       </c>
       <c r="AA3">
-        <v>0.1530978432978647</v>
+        <v>0.0603253509638339</v>
       </c>
       <c r="AB3">
-        <v>0.08153352520296724</v>
+        <v>0.08776546749707485</v>
       </c>
       <c r="AC3">
-        <v>0.07156431809489745</v>
+        <v>-0.02744011653324095</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.053</v>
       </c>
       <c r="AE3">
-        <v>0.0876607286523621</v>
+        <v>0.07252612036925087</v>
       </c>
       <c r="AF3">
-        <v>0.0876607286523621</v>
+        <v>0.1255261203692509</v>
       </c>
       <c r="AG3">
-        <v>-1.892339271347638</v>
+        <v>-1.054473879630749</v>
       </c>
       <c r="AH3">
-        <v>0.001207653308735984</v>
+        <v>0.00198223572798512</v>
       </c>
       <c r="AI3">
-        <v>0.001793105404222899</v>
+        <v>0.002994026121672563</v>
       </c>
       <c r="AJ3">
-        <v>-0.02680076427712231</v>
+        <v>-0.01696781643763617</v>
       </c>
       <c r="AK3">
-        <v>-0.04034179581655732</v>
+        <v>-0.02587950089331656</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>0.01569440331655315</v>
+      </c>
+      <c r="AO3">
+        <v>1066.666666666667</v>
       </c>
       <c r="AP3">
-        <v>-0.2446463182091322</v>
+        <v>-0.3122516670508585</v>
+      </c>
+      <c r="AQ3">
+        <v>1066.666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -853,25 +859,28 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.0526</v>
+        <v>-0.108</v>
+      </c>
+      <c r="E4">
+        <v>-0.398</v>
       </c>
       <c r="G4">
-        <v>-0.1467236467236467</v>
+        <v>0.04461867426942266</v>
       </c>
       <c r="H4">
-        <v>-0.1467236467236467</v>
+        <v>0.04461867426942266</v>
       </c>
       <c r="I4">
-        <v>-0.07038993175840363</v>
+        <v>0.04947879461412423</v>
       </c>
       <c r="J4">
-        <v>-0.07038993175840363</v>
+        <v>0.04024179822451204</v>
       </c>
       <c r="K4">
-        <v>-14</v>
+        <v>5.62</v>
       </c>
       <c r="L4">
-        <v>-0.09971509971509972</v>
+        <v>0.04005702066999287</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -880,7 +889,7 @@
         <v>-0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -889,79 +898,79 @@
         <v>-0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>6.06</v>
+        <v>10.6</v>
       </c>
       <c r="V4">
-        <v>0.06622950819672131</v>
+        <v>0.05898720089037285</v>
       </c>
       <c r="W4">
-        <v>-0.1082753286929621</v>
+        <v>0.04679433805162365</v>
       </c>
       <c r="X4">
-        <v>0.08163153116461339</v>
+        <v>0.08785391950270549</v>
       </c>
       <c r="Y4">
-        <v>-0.1899068598575755</v>
+        <v>-0.04105958145108184</v>
       </c>
       <c r="Z4">
-        <v>1.164954464801075</v>
+        <v>1.228625747850342</v>
       </c>
       <c r="AA4">
-        <v>-0.08200106527899532</v>
+        <v>0.04944210943843366</v>
       </c>
       <c r="AB4">
-        <v>0.08152560404736391</v>
+        <v>0.0877723065094707</v>
       </c>
       <c r="AC4">
-        <v>-0.1635266693263592</v>
+        <v>-0.03833019707103704</v>
       </c>
       <c r="AD4">
-        <v>0.092</v>
+        <v>0.202</v>
       </c>
       <c r="AE4">
-        <v>0.1087320943993481</v>
+        <v>0.06062557819184914</v>
       </c>
       <c r="AF4">
-        <v>0.2007320943993481</v>
+        <v>0.2626255781918492</v>
       </c>
       <c r="AG4">
-        <v>-5.859267905600651</v>
+        <v>-10.33737442180815</v>
       </c>
       <c r="AH4">
-        <v>0.002188991187035549</v>
+        <v>0.001459333999757306</v>
       </c>
       <c r="AI4">
-        <v>0.001667199948933579</v>
+        <v>0.002347750884930501</v>
       </c>
       <c r="AJ4">
-        <v>-0.06841683580124171</v>
+        <v>-0.06103692822732935</v>
       </c>
       <c r="AK4">
-        <v>-0.05124392504993984</v>
+        <v>-0.1020847954789198</v>
       </c>
       <c r="AL4">
-        <v>0.007</v>
+        <v>0.012</v>
       </c>
       <c r="AM4">
-        <v>0.007</v>
+        <v>0.012</v>
       </c>
       <c r="AN4">
-        <v>-0.010097684118099</v>
+        <v>0.02625422407070445</v>
       </c>
       <c r="AO4">
-        <v>-1417.142857142857</v>
+        <v>576.6666666666666</v>
       </c>
       <c r="AP4">
-        <v>0.6430982225442489</v>
+        <v>-1.343563090955049</v>
       </c>
       <c r="AQ4">
-        <v>-1417.142857142857</v>
+        <v>576.6666666666666</v>
       </c>
     </row>
   </sheetData>
